--- a/exp_w2v_own/summary_results.xlsx
+++ b/exp_w2v_own/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,137 +522,69 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13a_TR_w2v_lg_sim.xlsx</t>
+          <t>13b_TR_w2v_lg_combined.xlsx</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2969999999999999</v>
+        <v>0.3182769999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2078</v>
+        <v>0.2227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2445190174326466</v>
+        <v>0.2620454766099113</v>
       </c>
       <c r="E3" t="n">
-        <v>0.199163</v>
+        <v>0.217446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2786</v>
+        <v>0.3042</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2322775593756737</v>
+        <v>0.253609049815392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.140426</v>
+        <v>0.1564419999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.327268</v>
+        <v>0.364625</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1965256606584647</v>
+        <v>0.2189456029646858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13a_TR_w2v_sm_sim.xlsx</t>
+          <t>14b_TR_w2v_lg_posfilter.xlsx</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2969999999999999</v>
+        <v>0.180999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2078</v>
+        <v>0.1266</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2445190174326466</v>
+        <v>0.1489892580925166</v>
       </c>
       <c r="E4" t="n">
-        <v>0.199163</v>
+        <v>0.10081</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2786</v>
+        <v>0.141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2322775593756737</v>
+        <v>0.1175651131053306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.140426</v>
+        <v>0.06434999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.327268</v>
+        <v>0.149926</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1965256606584647</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>13b_TR_w2v_lg_combined.xlsx</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3182769999999999</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2227</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2620454766099113</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.217446</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3042</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.253609049815392</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1564419999999999</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.364625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2189456029646858</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>13b_TR_w2v_sm_combined.xlsx</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.3182769999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2227</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2620454766099113</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.217446</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3042</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.253609049815392</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1564419999999999</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.364625</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2189456029646858</v>
+        <v>0.09004963785024921</v>
       </c>
     </row>
   </sheetData>

--- a/exp_w2v_own/summary_results.xlsx
+++ b/exp_w2v_own/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,103 +488,273 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12_TR_cooccur.xlsx</t>
+          <t>10_tfidf_phrase_cv.xlsx</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.378391</v>
+        <v>0.319525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2648</v>
+        <v>0.2236</v>
       </c>
       <c r="D2" t="n">
-        <v>0.311565108342623</v>
+        <v>0.2630915166858458</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2571609999999999</v>
+        <v>0.200984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3598</v>
+        <v>0.2812000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.299942874184916</v>
+        <v>0.2344196439533456</v>
       </c>
       <c r="H2" t="n">
-        <v>0.174174</v>
+        <v>0.132704</v>
       </c>
       <c r="I2" t="n">
-        <v>0.405973</v>
+        <v>0.3092810000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.243765601828502</v>
+        <v>0.1857204467300926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13b_TR_w2v_lg_combined.xlsx</t>
+          <t>11_tr_phrase_countvectorizer.xlsx</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3182769999999999</v>
+        <v>0.317515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2227</v>
+        <v>0.2222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2620454766099113</v>
+        <v>0.2614410679710588</v>
       </c>
       <c r="E3" t="n">
-        <v>0.217446</v>
+        <v>0.189272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3042</v>
+        <v>0.2648</v>
       </c>
       <c r="G3" t="n">
-        <v>0.253609049815392</v>
+        <v>0.2207545305590303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1564419999999999</v>
+        <v>0.116116</v>
       </c>
       <c r="I3" t="n">
-        <v>0.364625</v>
+        <v>0.270617</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2189456029646858</v>
+        <v>0.1625046922398657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14b_TR_w2v_lg_posfilter.xlsx</t>
+          <t>12_TR_cooccur.xlsx</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.180999</v>
+        <v>0.378391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1266</v>
+        <v>0.2648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1489892580925166</v>
+        <v>0.311565108342623</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10081</v>
+        <v>0.2571609999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.141</v>
+        <v>0.3598</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1175651131053306</v>
+        <v>0.299942874184916</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06434999999999999</v>
+        <v>0.174174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.149926</v>
+        <v>0.405973</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09004963785024921</v>
+        <v>0.243765601828502</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13b_TR_w2v_lg_combined.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3182769999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2620454766099113</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.217446</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3042</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.253609049815392</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1564419999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.364625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2189456029646858</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15b1_TR_w2v_lg_npos_posisi.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.356689</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2936869196043471</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2480169999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2892754291053868</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.177892</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.41464</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2489693008310099</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16b1_TR_w2v_lg_npos_posisi_wfrase.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.356689</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2936869196043471</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2480169999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2892754291053868</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.177892</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.41464</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2489693008310099</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17b_TR_w2v_lg_tfidf_1wv.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.356689</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2936869196043471</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2480169999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2892754291053868</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.177892</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.41464</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2489693008310099</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17b_TR_w2v_lg_tfidf_2trf.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.361688</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.297804227798851</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2530209999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2951114837872165</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.183612</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.427979</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2569759206659352</v>
       </c>
     </row>
   </sheetData>

--- a/exp_w2v_own/summary_results.xlsx
+++ b/exp_w2v_own/summary_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,41 +624,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15b1_TR_w2v_lg_npos_posisi.xlsx</t>
+          <t>14b_TR_w2v_lg_posfilter.xlsx</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.356689</v>
+        <v>0.180999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2496</v>
+        <v>0.1266</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2936869196043471</v>
+        <v>0.1489892580925166</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2480169999999999</v>
+        <v>0.10081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.347</v>
+        <v>0.141</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2892754291053868</v>
+        <v>0.1175651131053306</v>
       </c>
       <c r="H6" t="n">
-        <v>0.177892</v>
+        <v>0.06434999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.41464</v>
+        <v>0.149926</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2489693008310099</v>
+        <v>0.09004963785024921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16b1_TR_w2v_lg_npos_posisi_wfrase.xlsx</t>
+          <t>15b1_TR_w2v_lg_npos_posisi.xlsx</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -692,7 +692,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17b_TR_w2v_lg_tfidf_1wv.xlsx</t>
+          <t>16b1_TR_w2v_lg_npos_posisi_wfrase.xlsx</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -726,34 +726,68 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>17b_TR_w2v_lg_tfidf_1wv.xlsx</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.356689</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2496</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2936869196043471</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2480169999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2892754291053868</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.177892</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.41464</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2489693008310099</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>17b_TR_w2v_lg_tfidf_2trf.xlsx</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>0.361688</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.2531</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.297804227798851</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>0.2530209999999999</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>0.354</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>0.2951114837872165</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>0.183612</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>0.427979</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>0.2569759206659352</v>
       </c>
     </row>
